--- a/spreadsheet/acr_security_checklist.en.xlsx
+++ b/spreadsheet/acr_security_checklist.en.xlsx
@@ -1100,22 +1100,22 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Control inbound network access with Private Link</t>
+          <t>Disable Azure Container Registry image export</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
+          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/container-registry/data-loss-prevention</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
+          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1150,22 +1150,22 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Disable Public Network access</t>
+          <t>Enable Azure Policies for Azure Container Registry</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Disable public network access if inbound network access is secured using Private Link</t>
+          <t>Enable audit compliance visibility by enabling Azure Policy for Azur eContainer Registry</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-access-selected-networks#disable-public-network-access</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-azure-policy</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
+          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
+          <t>Sign and Verify containers with notation (Notary v2)</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Only the ACR Premium SKU supports Private Link access</t>
+          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by�notation�with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the�az�or�oras�CLI commands.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-skus</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-tutorial-sign-build-push</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
+          <t>d345293c-7639-4637-a551-c5c04e401955</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,22 +1250,22 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
+          <t>Encrypt registry with a customer managed key</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender for containers or equivalient service should be used to scan container images for vulnerabilities</t>
+          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/container-registry/tutorial-customer-managed-keys</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
+          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Control</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Disable Azure Container Registry image export</t>
+          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
+          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/data-loss-prevention</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-roles?tabs=azure-cli</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
+          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,22 +1450,22 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Control</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Enable Azure Policies for Azure Container Registry</t>
+          <t>Disable Anonymous pull access</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>Enable audit compliance visibility by enabling Azure Policy for Azur eContainer Registry</t>
+          <t>Disable anonymous pull/push access</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/container-registry/anonymous-pull-access#configure-anonymous-pull-access</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
+          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1500,17 +1500,17 @@
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity and Access Control</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Sign and Verify containers with notation (Notary v2)</t>
+          <t>Disable repository-scoped access tokens</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by�notation�with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the�az�or�oras�CLI commands.</t>
+          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-tutorial-sign-build-push</t>
+          <t>https://learn.microsoft.com/en-gb/azure/container-registry/container-registry-authentication?tabs=azure-cli</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>d345293c-7639-4637-a551-c5c04e401955</t>
+          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
+          <t>Deploy images from a trusted environment</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
+          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1574,17 +1574,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-roles?tabs=azure-cli</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
       <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
+          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,12 +1601,12 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Disable Anonymous pull access</t>
+          <t>Disable Azure ARM audience tokens for authentication</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Disable anonymous pull/push access</t>
+          <t>Only tokens with an ACR audience can be used for authentication. Used when anabling Conditional access policies for ACR</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1626,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/anonymous-pull-access#configure-anonymous-pull-access</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-enable-conditional-access-policy</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
+          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,22 +1646,22 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Control</t>
+          <t>Logging and Monitoring</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Disable repository-scoped access tokens</t>
+          <t>Enable diagnostics logging</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
+          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/azure/container-registry/container-registry-authentication?tabs=azure-cli</t>
+          <t>https://learn.microsoft.com/azure/container-registry/monitor-service</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
+          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1700,17 +1696,17 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Logging and Monitoring</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Enable diagnostics logging</t>
+          <t>Control inbound network access with Private Link</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
+          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
@@ -1726,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/monitor-service</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
+          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1750,22 +1746,22 @@
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Control</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Deploy images from a trusted environment</t>
+          <t>Disable Public Network access</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
+          <t>Disable public network access if inbound network access is secured using Private Link</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1774,13 +1770,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="n"/>
+      <c r="H21" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-access-selected-networks#disable-public-network-access</t>
+        </is>
+      </c>
       <c r="I21" s="16" t="n"/>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
+          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Encrypt registry with a customer managed key</t>
+          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
+          <t>Only the ACR Premium SKU supports Private Link access</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/tutorial-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-skus</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
+          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access Control</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Disable Azure ARM audience tokens for authentication</t>
+          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Only tokens with an ACR audience can be used for authentication. Used when anabling Conditional access policies for ACR</t>
+          <t>Azure Defender for containers or equivalient service should be used to scan container images for vulnerabilities</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-enable-conditional-access-policy</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
+          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -11593,7 +11593,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11677,7 +11677,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11734,43 +11734,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Security, Governance, and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Application Automation and DevOps</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12036,7 +12036,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/acr_security_checklist.en.xlsx
+++ b/spreadsheet/acr_security_checklist.en.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Enable audit compliance visibility by enabling Azure Policy for Azur eContainer Registry</t>
+          <t>Enable audit compliance visibility by enabling Azure Policy for Azure Container Registry</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Only tokens with an ACR audience can be used for authentication. Used when anabling Conditional access policies for ACR</t>
+          <t>Only tokens with an ACR audience can be used for authentication. Used when enabling Conditional access policies for ACR</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender for containers or equivalient service should be used to scan container images for vulnerabilities</t>
+          <t>Azure Defender for containers or equivalent service should be used to scan container images for vulnerabilities</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
